--- a/file.xlsx
+++ b/file.xlsx
@@ -19,6 +19,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,14 +122,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
   </si>
 </sst>
 </file>
@@ -119,10 +122,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -135,6 +138,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
